--- a/Bass_Model.xlsx
+++ b/Bass_Model.xlsx
@@ -211,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -219,22 +219,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -266,6 +280,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> by week</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -276,7 +350,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Revenue</c:v>
+            <c:v>Actual Revenue</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -402,6 +476,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Bass Model Prediction</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -541,20 +618,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -617,6 +735,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -666,6 +839,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -724,6 +928,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> by week</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -734,7 +998,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Revenue</c:v>
+            <c:v>Actual Revenue</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -860,6 +1124,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Bass Model Prediction</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -999,20 +1266,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1075,6 +1383,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1124,6 +1487,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2284,16 +2678,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2325,16 +2719,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2687,26 +3081,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2714,280 +3108,280 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>0.1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>0.1</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <f>C4*C3</f>
         <v>1.8143498630532269</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <f>H2-F2</f>
         <v>1.7143498630532268</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="4">
         <f>I2^2</f>
         <v>2.9389954529506173</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1">
+      <c r="B3" s="7"/>
+      <c r="C3" s="3">
         <v>28.338217246111022</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>3.1</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <f>($C$4+$C$5*(G2/$C$3))*($C$3-G2)</f>
         <v>1.9075944985698949</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I5" si="0">H3-F3</f>
         <v>-1.0924055014301051</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <f>I3^2</f>
         <v>1.1933497795547592</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3">
         <v>6.4024841340441702E-2</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>5.2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <f>($C$4+$C$5*(G3/$C$3))*($C$3-G3)</f>
         <v>4.3767548392323228</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>-0.8232451607676774</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <f>I4^2</f>
         <v>0.677732594727399</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>7</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>15.3</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <f>($C$4+$C$5*(G4/$C$3))*($C$3-G4)</f>
         <v>7.1519509536842012</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>0.1519509536842012</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <f>I5^2</f>
         <v>2.3089092325538258E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="5">
         <v>5.25</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>20.55</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <f>($C$4+$C$5*(SUM(H2:H5)/$C$3))*($C$3-SUM(H2:H5))</f>
         <v>7.881206171449028</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
       <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>25.45</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <f>($C$4+$C$5*(SUM(H2:H6)/$C$3))*($C$3-SUM(H2:H6))</f>
         <v>4.5831730302570781</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <v>3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>28.45</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <f>($C$4+$C$5*(SUM(H2:H7)/$C$3))*($C$3-SUM(H2:H7))</f>
         <v>0.64938282337544528</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="5">
         <v>2.4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>30.85</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <f>($C$4+$C$5*(SUM(H2:H8)/$C$3))*($C$3-SUM(H2:H8))</f>
         <v>-2.7896273723279852E-2</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>1.9</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>32.75</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="6">
         <f>($C$4+$C$5*(SUM(H2:H9)/$C$3))*($C$3-SUM(H2:H9))</f>
         <v>1.8101661070305877E-3</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>1.3</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>34.049999999999997</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <f>($C$4+$C$5*(SUM(H2:H10)/$C$3))*($C$3-SUM(H2:H10))</f>
         <v>-1.1579387243970042E-4</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
       <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="5">
         <v>0.8</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="5">
         <v>34.85</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <f>($C$4+$C$5*(SUM(H2:H11)/$C$3))*($C$3-SUM(H2:H11))</f>
         <v>7.4141005159067167E-6</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
       <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>0.6</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="5">
         <v>35.450000000000003</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="6">
         <f>($C$4+$C$5*(SUM(H2:H12)/$C$3))*($C$3-SUM(H2:H12))</f>
         <v>-4.7468490273470834E-7</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <f>SUM(J2:J5)</f>
         <v>4.8331669195583133</v>
       </c>
@@ -3002,26 +3396,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3029,328 +3423,328 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>0.1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8">
         <v>0.1</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="8">
         <f>C4*C3</f>
         <v>2.5613511461731986</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="8">
         <f>H2-F2</f>
         <v>2.4613511461731985</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="8">
         <f>I2^2</f>
         <v>6.0582494647681182</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1">
+      <c r="B3" s="7"/>
+      <c r="C3" s="3">
         <v>34.81452847163856</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>3.1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="8">
         <f>($C$4+$C$5*(G2/$C$3))*($C$3-G2)</f>
         <v>2.6031405877036349</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="8">
         <f t="shared" ref="I3:I13" si="0">H3-F3</f>
         <v>-0.39685941229636512</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8">
         <f>I3^2</f>
         <v>0.15749739312821631</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1">
+      <c r="B4" s="7"/>
+      <c r="C4" s="3">
         <v>7.3571329517209669E-2</v>
       </c>
       <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="8">
         <v>5.2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="8">
         <f>($C$4+$C$5*(G3/$C$3))*($C$3-G3)</f>
         <v>3.7251604745543982</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="8">
         <f t="shared" si="0"/>
         <v>-1.4748395254456019</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="8">
         <f>I4^2</f>
         <v>2.1751516258166084</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="3">
         <v>0.49288147986525316</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <v>15.3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="8">
         <f>($C$4+$C$5*(G4/$C$3))*($C$3-G4)</f>
         <v>5.0663255224701844</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="8">
         <f t="shared" si="0"/>
         <v>-1.9336744775298156</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="8">
         <f>I5^2</f>
         <v>3.7390969850502054</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2"/>
       <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <v>5.25</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <v>20.55</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="8">
         <f t="shared" ref="H6:H13" si="1">($C$4+$C$5*(G5/$C$3))*($C$3-G5)</f>
         <v>5.6627022827456344</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>0.41270228274563436</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="8">
         <f t="shared" ref="J6:J13" si="2">I6^2</f>
         <v>0.17032317418345752</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
       <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <v>25.45</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
         <f t="shared" si="1"/>
         <v>5.1994902529849405</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>0.29949025298494014</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
         <v>8.9694411632983445E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <v>3</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <v>28.45</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>4.0630432012335937</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="8">
         <f t="shared" si="0"/>
         <v>1.0630432012335937</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>1.1300608476889669</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
       <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <v>2.4</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <v>30.85</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>3.0317300866457018</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="8">
         <f t="shared" si="0"/>
         <v>0.63173008664570185</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>0.39908290237338595</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
       <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <v>1.9</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <v>32.75</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>2.023200333314342</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="8">
         <f t="shared" si="0"/>
         <v>0.1232003333143421</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>1.5178322128764993E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2"/>
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <v>1.3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <v>34.049999999999997</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>1.1091153921916197</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="8">
         <f t="shared" si="0"/>
         <v>-0.19088460780838035</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="8">
         <f t="shared" si="2"/>
         <v>3.6436933498159178E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
       <c r="E12" s="3">
         <v>11</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <v>0.8</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <v>34.85</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>0.42479427571158024</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="8">
         <f t="shared" si="0"/>
         <v>-0.37520572428841981</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="8">
         <f t="shared" si="2"/>
         <v>0.14077933553879771</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
       <c r="E13" s="3">
         <v>12</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <v>0.6</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <v>35.450000000000003</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>-2.0110760086901939E-2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="8">
         <f t="shared" si="0"/>
         <v>-0.62011076008690191</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="8">
         <f t="shared" si="2"/>
         <v>0.38453735477555523</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <f>SUM(J2:J13)</f>
         <v>14.496088750583217</v>
       </c>
